--- a/PNH_Progression_Monitoring_Feature_Dictionary.xlsx
+++ b/PNH_Progression_Monitoring_Feature_Dictionary.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Documents/GitHub/Clients/pnh_suboptimal_tx/Output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Documents/GitHub/pnh-progression-monitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42CFD7C-87BF-E746-A562-D5EB8DD82642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8835B31-28BA-D443-B969-72F790256463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3280" yWindow="-23120" windowWidth="29400" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PreTreatmentVariables" sheetId="1" r:id="rId1"/>
-    <sheet name="OngoingTreatmentVariables " sheetId="3" r:id="rId2"/>
-    <sheet name="CCI" sheetId="2" r:id="rId3"/>
+    <sheet name="BoneMarrowFailure_BMF" sheetId="4" r:id="rId1"/>
+    <sheet name="PreTreatmentVariables" sheetId="1" r:id="rId2"/>
+    <sheet name="OngoingTreatmentVariables " sheetId="3" r:id="rId3"/>
+    <sheet name="CCI" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
   <si>
     <t>Column</t>
   </si>
@@ -334,6 +335,24 @@
   </si>
   <si>
     <t>https://github.com/atroposhealth/pnh-progression-monitoring</t>
+  </si>
+  <si>
+    <t>ANY ICD10("D46")</t>
+  </si>
+  <si>
+    <t>Myelodysplastic syndrome (MDS)</t>
+  </si>
+  <si>
+    <t>Aplastic Anemia</t>
+  </si>
+  <si>
+    <t>ANY ICD10("D61")</t>
+  </si>
+  <si>
+    <t>Bone Marrow Failure (BMF) is</t>
+  </si>
+  <si>
+    <t>Either MDS or Aplastic Anemia</t>
   </si>
 </sst>
 </file>
@@ -747,17 +766,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC8C569-8F31-DF45-A423-C00A75644291}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:V5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="102.83203125" style="29" customWidth="1"/>
+    <col min="3" max="16384" width="12.6640625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+    </row>
+    <row r="2" spans="1:22" ht="16" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+    </row>
+    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:V983"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:B1"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24447,7 +24560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7E6205-6225-A047-BFC0-FFFAA807EBB1}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -48235,7 +48348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/PNH_Progression_Monitoring_Feature_Dictionary.xlsx
+++ b/PNH_Progression_Monitoring_Feature_Dictionary.xlsx
@@ -1,29 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Documents/GitHub/pnh-progression-monitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8835B31-28BA-D443-B969-72F790256463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21E266F-ACB5-E249-8878-5F93A836505F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3280" yWindow="-23120" windowWidth="29400" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="29400" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoneMarrowFailure_BMF" sheetId="4" r:id="rId1"/>
     <sheet name="PreTreatmentVariables" sheetId="1" r:id="rId2"/>
     <sheet name="OngoingTreatmentVariables " sheetId="3" r:id="rId3"/>
     <sheet name="CCI" sheetId="2" r:id="rId4"/>
+    <sheet name="POSCodes" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">POSCodes!$A$2:$E$62</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="223">
   <si>
     <t>Column</t>
   </si>
@@ -354,16 +371,420 @@
   <si>
     <t>Either MDS or Aplastic Anemia</t>
   </si>
+  <si>
+    <t>NO MATCHING CONCEPT</t>
+  </si>
+  <si>
+    <t>Other place of service not identified above.</t>
+  </si>
+  <si>
+    <t>Other Place of Service</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Unassigned</t>
+  </si>
+  <si>
+    <t>82-98</t>
+  </si>
+  <si>
+    <t>LABORATORY VISIT</t>
+  </si>
+  <si>
+    <t>A laboratory certified to perform diagnostic and/or clinical tests independent of an institution or a physician's office.</t>
+  </si>
+  <si>
+    <t>Independent Laboratory</t>
+  </si>
+  <si>
+    <t>73-80</t>
+  </si>
+  <si>
+    <t>OFFICE VISIT</t>
+  </si>
+  <si>
+    <t>A certified facility which is located in a rural medically underserved area that provides ambulatory primary medical care under the general direction of a physician.</t>
+  </si>
+  <si>
+    <t>Rural Health Clinic</t>
+  </si>
+  <si>
+    <t>A facility maintained by either State or local health departments that provides ambulatory primary medical care under the general direction of a physician.</t>
+  </si>
+  <si>
+    <t>Public Health Clinic</t>
+  </si>
+  <si>
+    <t>67-70</t>
+  </si>
+  <si>
+    <t>A facility or location providing comprehensive medical and social services as part of the Programs of All-Inclusive Care for the Elderly (PACE). This includes, but is not limited to, primary care; social work services; restorative therapies, including physical and occupational therapy; personal care and supportive services; nutritional counseling; recreational therapy; and meals when the individual is enrolled in PACE. (Effective August 1, 2024)</t>
+  </si>
+  <si>
+    <t>Programs of All-Inclusive Care for the Elderly (PACE) Center*</t>
+  </si>
+  <si>
+    <t>OUTPATIENT VISIT</t>
+  </si>
+  <si>
+    <t>A facility other than a hospital, which provides dialysis treatment, maintenance, and/or training to patients or caregivers on an ambulatory or home-care basis.</t>
+  </si>
+  <si>
+    <t>End-Stage Renal Disease Treatment Facility</t>
+  </si>
+  <si>
+    <t>63-64</t>
+  </si>
+  <si>
+    <t>A facility that provides comprehensive rehabilitation services under the supervision of a physician to outpatients with physical disabilities. Services include physical therapy, occupational therapy, and speech pathology services.</t>
+  </si>
+  <si>
+    <t>Comprehensive Outpatient Rehabilitation Facility</t>
+  </si>
+  <si>
+    <t>A facility that provides comprehensive rehabilitation services under the supervision of a physician to inpatients with physical disabilities. Services include physical therapy, occupational therapy, speech pathology, social or psychological services, and orthotics and prosthetics services.</t>
+  </si>
+  <si>
+    <t>Comprehensive Inpatient Rehabilitation Facility</t>
+  </si>
+  <si>
+    <t>A location where providers administer pneumococcal pneumonia and influenza virus vaccinations and submit these services as electronic media claims, paper claims, or using the roster billing method. This generally takes place in a mass immunization setting, such as, a public health center, pharmacy, or mall but may include a physician office setting.</t>
+  </si>
+  <si>
+    <t>Mass Immunization Center</t>
+  </si>
+  <si>
+    <t>A location that provides treatment for opioid use disorder on an ambulatory basis. Services include methadone and other forms of Medication Assisted Treatment (MAT) (Effective January 1, 2020)</t>
+  </si>
+  <si>
+    <t>Non-residential Opioid Treatment Facility</t>
+  </si>
+  <si>
+    <t>A location which provides treatment for substance (alcohol and drug) abuse on an ambulatory basis. Services include individual and group therapy and counseling, family counseling, laboratory tests, drugs and supplies, and psychological testing. (Effective October 1, 2023)</t>
+  </si>
+  <si>
+    <t>Non-residential Substance Abuse Treatment Facility</t>
+  </si>
+  <si>
+    <t>A facility or distinct part of a facility for psychiatric care which provides a total 24-hour therapeutically planned and professionally staffed group living and learning environment.</t>
+  </si>
+  <si>
+    <t>Psychiatric Residential Treatment Center</t>
+  </si>
+  <si>
+    <t>A facility which provides treatment for substance (alcohol and drug) abuse to live-in residents who do not require acute medical care. Services include individual and group therapy and counseling, family counseling, laboratory tests, drugs and supplies, psychological testing, and room and board.</t>
+  </si>
+  <si>
+    <t>Residential Substance Abuse Treatment Facility</t>
+  </si>
+  <si>
+    <t>A facility which primarily provides health-related care and services above the level of custodial care to individuals but does not provide the level of care or treatment available in a hospital or SNF.</t>
+  </si>
+  <si>
+    <t>Intermediate Care Facility/ Individuals with Intellectual Disabilities</t>
+  </si>
+  <si>
+    <t>A facility that provides the following services: outpatient services, including specialized outpatient services for children, the elderly, individuals who are chronically ill, and residents of the CMHC's mental health services area who have been discharged from inpatient treatment at a mental health facility; 24 hour a day emergency care services; day treatment, other partial hospitalization services, or psychosocial rehabilitation services; screening for patients being considered for admission to State mental health facilities to determine the appropriateness of such admission; and consultation and education services.</t>
+  </si>
+  <si>
+    <t>Community Mental Health Center</t>
+  </si>
+  <si>
+    <t>A facility for the diagnosis and treatment of mental illness that provides a planned therapeutic program for patients who do not require full time hospitalization, but who need broader programs than are possible from outpatient visits to a hospital-based or hospital-affiliated facility.</t>
+  </si>
+  <si>
+    <t>Psychiatric Facility-Partial Hospitalization</t>
+  </si>
+  <si>
+    <t>INPATIENT VISIT</t>
+  </si>
+  <si>
+    <t>A facility that provides inpatient psychiatric services for the diagnosis and treatment of mental illness on a 24-hour basis, by or under the supervision of a physician.</t>
+  </si>
+  <si>
+    <t>Inpatient Psychiatric Facility</t>
+  </si>
+  <si>
+    <t>A facility located in a medically underserved area that provides Medicare beneficiaries preventive primary medical care under the general direction of a physician.</t>
+  </si>
+  <si>
+    <t>Federally Qualified Health Center</t>
+  </si>
+  <si>
+    <t>A location, not part of a hospital and not described by any other Place of Service code, that is organized and operated to provide preventive, diagnostic, therapeutic, rehabilitative, or palliative services to outpatients only. (Effective October 1, 2023)</t>
+  </si>
+  <si>
+    <t>Independent Clinic</t>
+  </si>
+  <si>
+    <t>43-48</t>
+  </si>
+  <si>
+    <t>AMBULANCE</t>
+  </si>
+  <si>
+    <t>An air or water vehicle specifically designed, equipped and staffed for lifesaving and transporting the sick or injured.</t>
+  </si>
+  <si>
+    <t>Ambulance – Air or Water</t>
+  </si>
+  <si>
+    <t>A land vehicle specifically designed, equipped and staffed for lifesaving and transporting the sick or injured.</t>
+  </si>
+  <si>
+    <t>Ambulance - Land</t>
+  </si>
+  <si>
+    <t>35-40</t>
+  </si>
+  <si>
+    <t>HOSPICE</t>
+  </si>
+  <si>
+    <t>A facility, other than a patient's home, in which palliative and supportive care for terminally ill patients and their families are provided.</t>
+  </si>
+  <si>
+    <t>Hospice</t>
+  </si>
+  <si>
+    <t>NURSING FACILITY</t>
+  </si>
+  <si>
+    <t>A facility which provides room, board and other personal assistance services, generally on a long-term basis, and which does not include a medical component.</t>
+  </si>
+  <si>
+    <t>Custodial Care Facility</t>
+  </si>
+  <si>
+    <t>A facility which primarily provides to residents skilled nursing care and related services for the rehabilitation of injured, disabled, or sick persons, or, on a regular basis, health-related care services above the level of custodial care to other than individuals with intellectual disabilities.</t>
+  </si>
+  <si>
+    <t>Nursing Facility</t>
+  </si>
+  <si>
+    <t>A facility which primarily provides inpatient skilled nursing care and related services to patients who require medical, nursing, or rehabilitative services but does not provide the level of care or treatment available in a hospital.</t>
+  </si>
+  <si>
+    <t>Skilled Nursing Facility</t>
+  </si>
+  <si>
+    <t>28-30</t>
+  </si>
+  <si>
+    <t>A non-permanent location on the street or found environment, not described by any other POS code, where health professionals provide preventive, screening, diagnostic, and/or treatment services to unsheltered homeless individuals. (Effective October 1, 2023)</t>
+  </si>
+  <si>
+    <t>Outreach Site/ Street</t>
+  </si>
+  <si>
+    <t>A medical facility operated by one or more of the Uniformed Services. Military Treatment Facility (MTF) also refers to certain former U.S. Public Health Service (USPHS) facilities now designated as Uniformed Service Treatment Facilities (USTF).</t>
+  </si>
+  <si>
+    <t>Military Treatment Facility</t>
+  </si>
+  <si>
+    <t>BIRTHING CENTER</t>
+  </si>
+  <si>
+    <t>A facility, other than a hospital's maternity facilities or a physician's office, which provides a setting for labor, delivery, and immediate post-partum care as well as immediate care of new born infants.</t>
+  </si>
+  <si>
+    <t>Birthing Center</t>
+  </si>
+  <si>
+    <t>A freestanding facility, other than a physician's office, where surgical and diagnostic services are provided on an ambulatory basis.</t>
+  </si>
+  <si>
+    <t>Ambulatory Surgical Center</t>
+  </si>
+  <si>
+    <t>EMERGENCY ROOM VISIT</t>
+  </si>
+  <si>
+    <t>A portion of a hospital where emergency diagnosis and treatment of illness or injury is provided.</t>
+  </si>
+  <si>
+    <t>Emergency Room – Hospital</t>
+  </si>
+  <si>
+    <t>A portion of a hospital’s main campus which provides diagnostic, therapeutic (both surgical and nonsurgical), and rehabilitation services to sick or injured persons who do not require hospitalization or institutionalization. (Description change effective January 1, 2016)</t>
+  </si>
+  <si>
+    <t>On Campus-Outpatient Hospital</t>
+  </si>
+  <si>
+    <t>A facility, other than psychiatric, which primarily provides diagnostic, therapeutic (both surgical and nonsurgical), and rehabilitation services by, or under, the supervision of physicians to patients admitted for a variety of medical conditions.</t>
+  </si>
+  <si>
+    <t>Inpatient Hospital</t>
+  </si>
+  <si>
+    <t>URGENT CARE VISIT</t>
+  </si>
+  <si>
+    <t>Location, distinct from a hospital emergency room, an office, or a clinic, whose purpose is to diagnose and treat illness or injury for unscheduled, ambulatory patients seeking immediate medical attention. (Effective January 1, 2003)</t>
+  </si>
+  <si>
+    <t>Urgent Care Facility</t>
+  </si>
+  <si>
+    <t>A portion of an off-campus hospital provider based department which provides diagnostic, therapeutic (both surgical and nonsurgical), and rehabilitation services to sick or injured persons who do not require hospitalization or institutionalization. (Effective January 1, 2016)</t>
+  </si>
+  <si>
+    <t>Off Campus-Outpatient Hospital</t>
+  </si>
+  <si>
+    <t>A location, not described by any other POS code, owned or operated by a public or private entity where the patient is employed, and where a health professional provides on-going or episodic occupational medical, therapeutic or rehabilitative services to the individual. (This code is available for use effective January 1, 2013 but no later than May 1, 2013)</t>
+  </si>
+  <si>
+    <t>Place of Employment-
+Worksite</t>
+  </si>
+  <si>
+    <t>A walk-in health clinic, other than an office, urgent care facility, pharmacy or independent clinic and not described by any other Place of Service code, that is located within a retail operation and provides, on an ambulatory basis, preventive and primary care services. (This code is available for use immediately with a final effective date of May 1, 2010)</t>
+  </si>
+  <si>
+    <t>Walk-in Retail Health Clinic</t>
+  </si>
+  <si>
+    <t>A short term accommodation such as a hotel, camp ground, hostel, cruise ship or resort where the patient receives care, and which is not identified by any other POS code. (Effective January 1, 2008)</t>
+  </si>
+  <si>
+    <t>Temporary Lodging</t>
+  </si>
+  <si>
+    <t>A facility/unit that moves from place-to-place equipped to provide preventive, screening, diagnostic, and/or treatment services. (Effective January 1, 2003)</t>
+  </si>
+  <si>
+    <t>Mobile Unit</t>
+  </si>
+  <si>
+    <t>A residence, with shared living areas, where clients receive supervision and other services such as social and/or behavioral services, custodial service, and minimal services (e.g., medication administration). (Effective October 1, 2003) (Revised, effective April 1, 2004)</t>
+  </si>
+  <si>
+    <t>Group Home</t>
+  </si>
+  <si>
+    <t>Congregate residential facility with self-contained living units providing assessment of each resident's needs and on-site support 24 hours a day, 7 days a week, with the capacity to deliver or arrange for services including some health care and other services. (Effective October 1, 2003)</t>
+  </si>
+  <si>
+    <t>Assisted Living Facility</t>
+  </si>
+  <si>
+    <t>HOME VISIT</t>
+  </si>
+  <si>
+    <t>Location, other than a hospital or other facility, where the patient receives care in a private residence.</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Location, other than a hospital, skilled nursing facility (SNF), military treatment facility, community health center, State or local public health clinic, or intermediate care facility (ICF), where the health professional routinely provides health examinations, diagnosis, and treatment of illness or injury on an ambulatory basis.</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>TELEHEALTH</t>
+  </si>
+  <si>
+    <t>The location where health services and health related services are provided or received, through telecommunication technology. Patient is located in their home (which is a location other than a hospital or other facility where the patient receives care in a private residence) when receiving health services or health related services through telecommunication technology. (This code is effective January 1, 2022, and available to Medicare April 1, 2022.)</t>
+  </si>
+  <si>
+    <t>Telehealth Provided in Patient’s Home</t>
+  </si>
+  <si>
+    <t>A prison, jail, reformatory, work farm, detention center, or any other similar facility maintained by either Federal, State or local authorities for the purpose of confinement or rehabilitation of adult or juvenile criminal offenders. (Effective July 1, 2006)</t>
+  </si>
+  <si>
+    <t>Prison/ Correctional Facility</t>
+  </si>
+  <si>
+    <t>A facility or location owned and operated by a federally recognized American Indian or Alaska Native tribe or tribal organization under a 638 agreement, which provides diagnostic, therapeutic (surgical and non-surgical), and rehabilitation services to tribal members admitted as inpatients or outpatients. (Effective January 1, 2003)</t>
+  </si>
+  <si>
+    <t>Tribal 638 Provider-based Facility</t>
+  </si>
+  <si>
+    <t>A facility or location owned and operated by a federally recognized American Indian or Alaska Native tribe or tribal organization under a 638 agreement, which provides diagnostic, therapeutic (surgical and non-surgical), and rehabilitation services to tribal members who do not require hospitalization. (Effective January 1, 2003)</t>
+  </si>
+  <si>
+    <t>Tribal 638 Free-standing Facility</t>
+  </si>
+  <si>
+    <t>A facility or location, owned and operated by the Indian Health Service, which provides diagnostic, therapeutic (surgical and non-surgical), and rehabilitation services rendered by, or under the supervision of, physicians to American Indians and Alaska Natives admitted as inpatients or outpatients. (Effective January 1, 2003)</t>
+  </si>
+  <si>
+    <t>Indian Health Service Provider-based Facility</t>
+  </si>
+  <si>
+    <t>A facility or location, owned and operated by the Indian Health Service, which provides diagnostic, therapeutic (surgical and non-surgical), and rehabilitation services to American Indians and Alaska Natives who do not require hospitalization. (Effective January 1, 2003)</t>
+  </si>
+  <si>
+    <t>Indian Health Service Free-standing Facility</t>
+  </si>
+  <si>
+    <t>A facility or location whose primary purpose is to provide temporary housing to homeless individuals (e.g., emergency shelters, individual or family shelters). (Effective January 1, 2003)</t>
+  </si>
+  <si>
+    <t>Homeless Shelter</t>
+  </si>
+  <si>
+    <t>A facility whose primary purpose is education. (Effective January 1, 2003)</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>The location where health services and health related services are provided or received, through telecommunication technology. Patient is not located in their home when receiving health services or health related services through telecommunication technology.  (Effective January 1, 2017) (Description change effective January 1, 2022, and applicable for Medicare April 1, 2022.)</t>
+  </si>
+  <si>
+    <t>Telehealth Provided Other than in Patient’s Home</t>
+  </si>
+  <si>
+    <t>PHARMACY VISIT</t>
+  </si>
+  <si>
+    <t>A facility or location where drugs and other medically related items and services are sold, dispensed, or otherwise provided directly to patients. (Effective October 1, 2003) (Revised, effective October 1, 2005)</t>
+  </si>
+  <si>
+    <t>Pharmacy</t>
+  </si>
+  <si>
+    <t>POS_Code_Desc</t>
+  </si>
+  <si>
+    <t>POS_Code_Name</t>
+  </si>
+  <si>
+    <t>POS_Code</t>
+  </si>
+  <si>
+    <t>Pulled from https://www.cms.gov/medicare/coding-billing/place-of-service-codes/code-sets (2024-05-02)</t>
+  </si>
+  <si>
+    <t>Mapping</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -399,8 +820,14 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,8 +852,14 @@
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -452,111 +885,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{63B04CCF-B094-F04B-BE61-02F4025DF6B3}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -776,7 +1274,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -51839,4 +52337,1145 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CCB439-D973-754F-A994-75301B2B9D88}">
+  <dimension ref="A1:E62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.83203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+    </row>
+    <row r="2" spans="1:5" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="34">
+        <v>1</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="38">
+        <f>IF(OR(C3="OUTPATIENT VISIT",C3="OFFICE VISIT"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="34">
+        <v>2</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="38">
+        <f t="shared" ref="D4:D12" si="0">IF(OR(C4="OUTPATIENT VISIT",C4="OFFICE VISIT"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="34">
+        <v>3</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="34">
+        <v>4</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="34">
+        <v>5</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="34">
+        <v>6</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="34">
+        <v>7</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="34">
+        <v>8</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="34">
+        <v>9</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="38">
+        <f>IF(OR(C11="OUTPATIENT VISIT",C11="OFFICE VISIT"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="34">
+        <v>10</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="34">
+        <v>11</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="38">
+        <f>IF(OR(C13="OUTPATIENT VISIT",C13="OFFICE VISIT"),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="34">
+        <v>12</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="38">
+        <f t="shared" ref="D14:D62" si="1">IF(OR(C14="OUTPATIENT VISIT",C14="OFFICE VISIT"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="34">
+        <v>13</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="34">
+        <v>14</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="34">
+        <v>15</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="34">
+        <v>16</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="34">
+        <v>17</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="34">
+        <v>18</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="34">
+        <v>19</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="34">
+        <v>20</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="34">
+        <v>21</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="34">
+        <v>22</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="34">
+        <v>23</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="34">
+        <v>24</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="34">
+        <v>25</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="34">
+        <v>26</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="34">
+        <v>27</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="34">
+        <v>31</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="34">
+        <v>32</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="34">
+        <v>33</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="34">
+        <v>34</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="34">
+        <v>41</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="34">
+        <v>42</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="34">
+        <v>49</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="34">
+        <v>50</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="34">
+        <v>51</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="34">
+        <v>52</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="34">
+        <v>53</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="34">
+        <v>54</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="34">
+        <v>55</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="34">
+        <v>56</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="34">
+        <v>57</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="34">
+        <v>58</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="34">
+        <v>59</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="34">
+        <v>60</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="34">
+        <v>61</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="34">
+        <v>62</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="34">
+        <v>65</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E54" s="34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="34">
+        <v>66</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="34">
+        <v>71</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E57" s="34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="34">
+        <v>72</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58" s="38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="34">
+        <v>81</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E60" s="34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E61" s="34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="34">
+        <v>99</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:E62" xr:uid="{E1CCB439-D973-754F-A994-75301B2B9D88}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A2:E1048576 A1 D1:E1">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>IF($D1=1,1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PNH_Progression_Monitoring_Feature_Dictionary.xlsx
+++ b/PNH_Progression_Monitoring_Feature_Dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Documents/GitHub/pnh-progression-monitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21E266F-ACB5-E249-8878-5F93A836505F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D7522E-B615-8F4B-8FDE-31F9342E1EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="29400" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -331,9 +331,6 @@
   </si>
   <si>
     <t>danicopan</t>
-  </si>
-  <si>
-    <t>Meication</t>
   </si>
   <si>
     <t>RxCUI</t>
@@ -768,6 +765,9 @@
   <si>
     <t>Mapping</t>
   </si>
+  <si>
+    <t>Medication</t>
+  </si>
 </sst>
 </file>
 
@@ -899,7 +899,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -992,57 +992,22 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{63B04CCF-B094-F04B-BE61-02F4025DF6B3}"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -1312,18 +1277,18 @@
     </row>
     <row r="2" spans="1:22" ht="16" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>88</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -1346,10 +1311,10 @@
     </row>
     <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1382,10 +1347,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
-        <v>84</v>
+      <c r="A1" s="36" t="s">
+        <v>83</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -1481,7 +1446,7 @@
         <v>57</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -1609,7 +1574,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -1675,7 +1640,7 @@
         <v>57</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -25069,7 +25034,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="A1:B1"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25083,10 +25048,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
-        <v>84</v>
+      <c r="A1" s="36" t="s">
+        <v>83</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -25388,7 +25353,7 @@
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -25415,10 +25380,10 @@
     <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="12"/>
@@ -52352,1118 +52317,1118 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.83203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="34"/>
+    <col min="1" max="1" width="10.6640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.83203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" spans="1:5" s="34" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-    </row>
-    <row r="2" spans="1:5" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>220</v>
+      <c r="D2" s="33" t="s">
+        <v>194</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>219</v>
+      <c r="E2" s="33" t="s">
+        <v>217</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>218</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="34">
+      <c r="A3" s="32">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>217</v>
+      <c r="B3" s="32" t="s">
+        <v>216</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>215</v>
+      <c r="C3" s="32" t="s">
+        <v>214</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="32">
         <f>IF(OR(C3="OUTPATIENT VISIT",C3="OFFICE VISIT"),1,0)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="34" t="s">
-        <v>216</v>
+      <c r="E3" s="32" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="34">
+      <c r="A4" s="32">
         <v>2</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>214</v>
+      <c r="B4" s="32" t="s">
+        <v>213</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>196</v>
+      <c r="C4" s="32" t="s">
+        <v>195</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="32">
         <f t="shared" ref="D4:D12" si="0">IF(OR(C4="OUTPATIENT VISIT",C4="OFFICE VISIT"),1,0)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="34" t="s">
-        <v>213</v>
+      <c r="E4" s="32" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="34">
+      <c r="A5" s="32">
         <v>3</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>212</v>
+      <c r="B5" s="32" t="s">
+        <v>211</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>91</v>
+      <c r="C5" s="32" t="s">
+        <v>90</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="34" t="s">
-        <v>211</v>
+      <c r="E5" s="32" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="34">
+      <c r="A6" s="32">
         <v>4</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>210</v>
+      <c r="B6" s="32" t="s">
+        <v>209</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>91</v>
+      <c r="C6" s="32" t="s">
+        <v>90</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="34" t="s">
-        <v>209</v>
+      <c r="E6" s="32" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="34">
+      <c r="A7" s="32">
         <v>5</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>208</v>
+      <c r="B7" s="32" t="s">
+        <v>207</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>91</v>
+      <c r="C7" s="32" t="s">
+        <v>90</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="34" t="s">
-        <v>207</v>
+      <c r="E7" s="32" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="34">
+      <c r="A8" s="32">
         <v>6</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>206</v>
+      <c r="B8" s="32" t="s">
+        <v>205</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>91</v>
+      <c r="C8" s="32" t="s">
+        <v>90</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="34" t="s">
-        <v>205</v>
+      <c r="E8" s="32" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="34">
+      <c r="A9" s="32">
         <v>7</v>
       </c>
-      <c r="B9" s="38" t="s">
-        <v>204</v>
+      <c r="B9" s="32" t="s">
+        <v>203</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>91</v>
+      <c r="C9" s="32" t="s">
+        <v>90</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>203</v>
+      <c r="E9" s="32" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="34">
+      <c r="A10" s="32">
         <v>8</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>202</v>
+      <c r="B10" s="32" t="s">
+        <v>201</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>91</v>
+      <c r="C10" s="32" t="s">
+        <v>90</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="34" t="s">
-        <v>201</v>
+      <c r="E10" s="32" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="34">
+      <c r="A11" s="32">
         <v>9</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>200</v>
+      <c r="B11" s="32" t="s">
+        <v>199</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>91</v>
+      <c r="C11" s="32" t="s">
+        <v>90</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="32">
         <f>IF(OR(C11="OUTPATIENT VISIT",C11="OFFICE VISIT"),1,0)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="34" t="s">
-        <v>199</v>
+      <c r="E11" s="32" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="34">
+      <c r="A12" s="32">
         <v>10</v>
       </c>
-      <c r="B12" s="38" t="s">
-        <v>198</v>
+      <c r="B12" s="32" t="s">
+        <v>197</v>
       </c>
-      <c r="C12" s="34" t="s">
-        <v>196</v>
+      <c r="C12" s="32" t="s">
+        <v>195</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="34" t="s">
-        <v>197</v>
+      <c r="E12" s="32" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="34">
+      <c r="A13" s="32">
         <v>11</v>
       </c>
-      <c r="B13" s="38" t="s">
-        <v>195</v>
+      <c r="B13" s="32" t="s">
+        <v>194</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>101</v>
+      <c r="C13" s="32" t="s">
+        <v>100</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="32">
         <f>IF(OR(C13="OUTPATIENT VISIT",C13="OFFICE VISIT"),1,0)</f>
         <v>1</v>
       </c>
-      <c r="E13" s="34" t="s">
-        <v>194</v>
+      <c r="E13" s="32" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="34">
+      <c r="A14" s="32">
         <v>12</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>193</v>
+      <c r="B14" s="32" t="s">
+        <v>192</v>
       </c>
-      <c r="C14" s="34" t="s">
-        <v>191</v>
+      <c r="C14" s="32" t="s">
+        <v>190</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="32">
         <f t="shared" ref="D14:D62" si="1">IF(OR(C14="OUTPATIENT VISIT",C14="OFFICE VISIT"),1,0)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="34" t="s">
-        <v>192</v>
+      <c r="E14" s="32" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="34">
+      <c r="A15" s="32">
         <v>13</v>
       </c>
-      <c r="B15" s="38" t="s">
-        <v>190</v>
+      <c r="B15" s="32" t="s">
+        <v>189</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>150</v>
+      <c r="C15" s="32" t="s">
+        <v>149</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>189</v>
+      <c r="E15" s="32" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="34">
+      <c r="A16" s="32">
         <v>14</v>
       </c>
-      <c r="B16" s="38" t="s">
-        <v>188</v>
+      <c r="B16" s="32" t="s">
+        <v>187</v>
       </c>
-      <c r="C16" s="34" t="s">
-        <v>150</v>
+      <c r="C16" s="32" t="s">
+        <v>149</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="34" t="s">
-        <v>187</v>
+      <c r="E16" s="32" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="34">
+      <c r="A17" s="32">
         <v>15</v>
       </c>
-      <c r="B17" s="38" t="s">
-        <v>186</v>
+      <c r="B17" s="32" t="s">
+        <v>185</v>
       </c>
-      <c r="C17" s="34" t="s">
-        <v>109</v>
+      <c r="C17" s="32" t="s">
+        <v>108</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E17" s="34" t="s">
-        <v>185</v>
+      <c r="E17" s="32" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="34">
+      <c r="A18" s="32">
         <v>16</v>
       </c>
-      <c r="B18" s="38" t="s">
-        <v>184</v>
+      <c r="B18" s="32" t="s">
+        <v>183</v>
       </c>
-      <c r="C18" s="34" t="s">
-        <v>91</v>
+      <c r="C18" s="32" t="s">
+        <v>90</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E18" s="34" t="s">
-        <v>183</v>
+      <c r="E18" s="32" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="34">
+      <c r="A19" s="32">
         <v>17</v>
       </c>
-      <c r="B19" s="38" t="s">
-        <v>182</v>
+      <c r="B19" s="32" t="s">
+        <v>181</v>
       </c>
-      <c r="C19" s="34" t="s">
-        <v>109</v>
+      <c r="C19" s="32" t="s">
+        <v>108</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E19" s="34" t="s">
-        <v>181</v>
+      <c r="E19" s="32" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="34">
+      <c r="A20" s="32">
         <v>18</v>
       </c>
-      <c r="B20" s="38" t="s">
-        <v>180</v>
+      <c r="B20" s="32" t="s">
+        <v>179</v>
       </c>
-      <c r="C20" s="34" t="s">
-        <v>91</v>
+      <c r="C20" s="32" t="s">
+        <v>90</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E20" s="34" t="s">
-        <v>179</v>
+      <c r="E20" s="32" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="34">
+      <c r="A21" s="32">
         <v>19</v>
       </c>
-      <c r="B21" s="38" t="s">
-        <v>178</v>
+      <c r="B21" s="32" t="s">
+        <v>177</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>109</v>
+      <c r="C21" s="32" t="s">
+        <v>108</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E21" s="34" t="s">
-        <v>177</v>
+      <c r="E21" s="32" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="34">
+      <c r="A22" s="32">
         <v>20</v>
       </c>
-      <c r="B22" s="38" t="s">
-        <v>176</v>
+      <c r="B22" s="32" t="s">
+        <v>175</v>
       </c>
-      <c r="C22" s="34" t="s">
-        <v>174</v>
+      <c r="C22" s="32" t="s">
+        <v>173</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E22" s="34" t="s">
-        <v>175</v>
+      <c r="E22" s="32" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="34">
+      <c r="A23" s="32">
         <v>21</v>
       </c>
-      <c r="B23" s="38" t="s">
-        <v>173</v>
+      <c r="B23" s="32" t="s">
+        <v>172</v>
       </c>
-      <c r="C23" s="34" t="s">
-        <v>133</v>
+      <c r="C23" s="32" t="s">
+        <v>132</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E23" s="34" t="s">
-        <v>172</v>
+      <c r="E23" s="32" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="34">
+      <c r="A24" s="32">
         <v>22</v>
       </c>
-      <c r="B24" s="38" t="s">
-        <v>171</v>
+      <c r="B24" s="32" t="s">
+        <v>170</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>109</v>
+      <c r="C24" s="32" t="s">
+        <v>108</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E24" s="34" t="s">
-        <v>170</v>
+      <c r="E24" s="32" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="34">
+      <c r="A25" s="32">
         <v>23</v>
       </c>
-      <c r="B25" s="38" t="s">
-        <v>169</v>
+      <c r="B25" s="32" t="s">
+        <v>168</v>
       </c>
-      <c r="C25" s="34" t="s">
-        <v>167</v>
+      <c r="C25" s="32" t="s">
+        <v>166</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E25" s="34" t="s">
-        <v>168</v>
+      <c r="E25" s="32" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="34">
+      <c r="A26" s="32">
         <v>24</v>
       </c>
-      <c r="B26" s="38" t="s">
-        <v>166</v>
+      <c r="B26" s="32" t="s">
+        <v>165</v>
       </c>
-      <c r="C26" s="34" t="s">
-        <v>109</v>
+      <c r="C26" s="32" t="s">
+        <v>108</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E26" s="34" t="s">
-        <v>165</v>
+      <c r="E26" s="32" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="34">
+      <c r="A27" s="32">
         <v>25</v>
       </c>
-      <c r="B27" s="38" t="s">
-        <v>164</v>
+      <c r="B27" s="32" t="s">
+        <v>163</v>
       </c>
-      <c r="C27" s="34" t="s">
-        <v>162</v>
+      <c r="C27" s="32" t="s">
+        <v>161</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E27" s="34" t="s">
-        <v>163</v>
+      <c r="E27" s="32" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="34">
+      <c r="A28" s="32">
         <v>26</v>
       </c>
-      <c r="B28" s="38" t="s">
-        <v>161</v>
+      <c r="B28" s="32" t="s">
+        <v>160</v>
       </c>
-      <c r="C28" s="34" t="s">
-        <v>91</v>
+      <c r="C28" s="32" t="s">
+        <v>90</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E28" s="34" t="s">
-        <v>160</v>
+      <c r="E28" s="32" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="34">
+      <c r="A29" s="32">
         <v>27</v>
       </c>
-      <c r="B29" s="38" t="s">
-        <v>159</v>
+      <c r="B29" s="32" t="s">
+        <v>158</v>
       </c>
-      <c r="C29" s="34" t="s">
-        <v>91</v>
+      <c r="C29" s="32" t="s">
+        <v>90</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E29" s="34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="34" t="s">
+      <c r="E29" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="B30" s="38" t="s">
-        <v>95</v>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="32" t="s">
+        <v>156</v>
       </c>
-      <c r="C30" s="34" t="s">
-        <v>91</v>
+      <c r="B30" s="32" t="s">
+        <v>94</v>
       </c>
-      <c r="D30" s="38">
+      <c r="C30" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E30" s="34" t="s">
-        <v>94</v>
+      <c r="E30" s="32" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="34">
+      <c r="A31" s="32">
         <v>31</v>
       </c>
-      <c r="B31" s="38" t="s">
-        <v>156</v>
+      <c r="B31" s="32" t="s">
+        <v>155</v>
       </c>
-      <c r="C31" s="34" t="s">
-        <v>150</v>
+      <c r="C31" s="32" t="s">
+        <v>149</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E31" s="34" t="s">
-        <v>155</v>
+      <c r="E31" s="32" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="34">
+      <c r="A32" s="32">
         <v>32</v>
       </c>
-      <c r="B32" s="38" t="s">
-        <v>154</v>
+      <c r="B32" s="32" t="s">
+        <v>153</v>
       </c>
-      <c r="C32" s="34" t="s">
-        <v>150</v>
+      <c r="C32" s="32" t="s">
+        <v>149</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E32" s="34" t="s">
-        <v>153</v>
+      <c r="E32" s="32" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="34">
+      <c r="A33" s="32">
         <v>33</v>
       </c>
-      <c r="B33" s="38" t="s">
-        <v>152</v>
+      <c r="B33" s="32" t="s">
+        <v>151</v>
       </c>
-      <c r="C33" s="34" t="s">
-        <v>150</v>
+      <c r="C33" s="32" t="s">
+        <v>149</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E33" s="34" t="s">
-        <v>151</v>
+      <c r="E33" s="32" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="34">
+      <c r="A34" s="32">
         <v>34</v>
       </c>
-      <c r="B34" s="38" t="s">
-        <v>149</v>
+      <c r="B34" s="32" t="s">
+        <v>148</v>
       </c>
-      <c r="C34" s="34" t="s">
-        <v>147</v>
+      <c r="C34" s="32" t="s">
+        <v>146</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E34" s="34" t="s">
-        <v>148</v>
+      <c r="E34" s="32" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="34" t="s">
-        <v>146</v>
+      <c r="A35" s="32" t="s">
+        <v>145</v>
       </c>
-      <c r="B35" s="38" t="s">
-        <v>95</v>
+      <c r="B35" s="32" t="s">
+        <v>94</v>
       </c>
-      <c r="C35" s="34" t="s">
-        <v>91</v>
+      <c r="C35" s="32" t="s">
+        <v>90</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E35" s="34" t="s">
-        <v>94</v>
+      <c r="E35" s="32" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="34">
+      <c r="A36" s="32">
         <v>41</v>
       </c>
-      <c r="B36" s="38" t="s">
-        <v>145</v>
+      <c r="B36" s="32" t="s">
+        <v>144</v>
       </c>
-      <c r="C36" s="34" t="s">
-        <v>141</v>
+      <c r="C36" s="32" t="s">
+        <v>140</v>
       </c>
-      <c r="D36" s="38">
+      <c r="D36" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E36" s="34" t="s">
-        <v>144</v>
+      <c r="E36" s="32" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="34">
+      <c r="A37" s="32">
         <v>42</v>
       </c>
-      <c r="B37" s="38" t="s">
-        <v>143</v>
+      <c r="B37" s="32" t="s">
+        <v>142</v>
       </c>
-      <c r="C37" s="34" t="s">
-        <v>141</v>
+      <c r="C37" s="32" t="s">
+        <v>140</v>
       </c>
-      <c r="D37" s="38">
+      <c r="D37" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E37" s="34" t="s">
-        <v>142</v>
+      <c r="E37" s="32" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="34" t="s">
-        <v>140</v>
+      <c r="A38" s="32" t="s">
+        <v>139</v>
       </c>
-      <c r="B38" s="38" t="s">
-        <v>95</v>
+      <c r="B38" s="32" t="s">
+        <v>94</v>
       </c>
-      <c r="C38" s="34" t="s">
-        <v>91</v>
+      <c r="C38" s="32" t="s">
+        <v>90</v>
       </c>
-      <c r="D38" s="38">
+      <c r="D38" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E38" s="34" t="s">
-        <v>94</v>
+      <c r="E38" s="32" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="34">
+      <c r="A39" s="32">
         <v>49</v>
       </c>
-      <c r="B39" s="38" t="s">
-        <v>139</v>
+      <c r="B39" s="32" t="s">
+        <v>138</v>
       </c>
-      <c r="C39" s="34" t="s">
-        <v>101</v>
+      <c r="C39" s="32" t="s">
+        <v>100</v>
       </c>
-      <c r="D39" s="38">
+      <c r="D39" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E39" s="34" t="s">
-        <v>138</v>
+      <c r="E39" s="32" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="34">
+      <c r="A40" s="32">
         <v>50</v>
       </c>
-      <c r="B40" s="38" t="s">
-        <v>137</v>
+      <c r="B40" s="32" t="s">
+        <v>136</v>
       </c>
-      <c r="C40" s="34" t="s">
-        <v>109</v>
+      <c r="C40" s="32" t="s">
+        <v>108</v>
       </c>
-      <c r="D40" s="38">
+      <c r="D40" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E40" s="34" t="s">
-        <v>136</v>
+      <c r="E40" s="32" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="34">
+      <c r="A41" s="32">
         <v>51</v>
       </c>
-      <c r="B41" s="38" t="s">
-        <v>135</v>
+      <c r="B41" s="32" t="s">
+        <v>134</v>
       </c>
-      <c r="C41" s="34" t="s">
-        <v>133</v>
+      <c r="C41" s="32" t="s">
+        <v>132</v>
       </c>
-      <c r="D41" s="38">
+      <c r="D41" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E41" s="34" t="s">
-        <v>134</v>
+      <c r="E41" s="32" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="34">
+      <c r="A42" s="32">
         <v>52</v>
       </c>
-      <c r="B42" s="38" t="s">
-        <v>132</v>
+      <c r="B42" s="32" t="s">
+        <v>131</v>
       </c>
-      <c r="C42" s="34" t="s">
-        <v>109</v>
+      <c r="C42" s="32" t="s">
+        <v>108</v>
       </c>
-      <c r="D42" s="38">
+      <c r="D42" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E42" s="34" t="s">
-        <v>131</v>
+      <c r="E42" s="32" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="34">
+      <c r="A43" s="32">
         <v>53</v>
       </c>
-      <c r="B43" s="38" t="s">
-        <v>130</v>
+      <c r="B43" s="32" t="s">
+        <v>129</v>
       </c>
-      <c r="C43" s="34" t="s">
-        <v>109</v>
+      <c r="C43" s="32" t="s">
+        <v>108</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E43" s="34" t="s">
-        <v>129</v>
+      <c r="E43" s="32" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="34">
+      <c r="A44" s="32">
         <v>54</v>
       </c>
-      <c r="B44" s="38" t="s">
-        <v>128</v>
+      <c r="B44" s="32" t="s">
+        <v>127</v>
       </c>
-      <c r="C44" s="34" t="s">
-        <v>91</v>
+      <c r="C44" s="32" t="s">
+        <v>90</v>
       </c>
-      <c r="D44" s="38">
+      <c r="D44" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E44" s="34" t="s">
-        <v>127</v>
+      <c r="E44" s="32" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="34">
+      <c r="A45" s="32">
         <v>55</v>
       </c>
-      <c r="B45" s="38" t="s">
-        <v>126</v>
+      <c r="B45" s="32" t="s">
+        <v>125</v>
       </c>
-      <c r="C45" s="34" t="s">
-        <v>91</v>
+      <c r="C45" s="32" t="s">
+        <v>90</v>
       </c>
-      <c r="D45" s="38">
+      <c r="D45" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E45" s="34" t="s">
-        <v>125</v>
+      <c r="E45" s="32" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="34">
+      <c r="A46" s="32">
         <v>56</v>
       </c>
-      <c r="B46" s="38" t="s">
-        <v>124</v>
+      <c r="B46" s="32" t="s">
+        <v>123</v>
       </c>
-      <c r="C46" s="34" t="s">
-        <v>91</v>
+      <c r="C46" s="32" t="s">
+        <v>90</v>
       </c>
-      <c r="D46" s="38">
+      <c r="D46" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E46" s="34" t="s">
-        <v>123</v>
+      <c r="E46" s="32" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="34">
+      <c r="A47" s="32">
         <v>57</v>
       </c>
-      <c r="B47" s="38" t="s">
-        <v>122</v>
+      <c r="B47" s="32" t="s">
+        <v>121</v>
       </c>
-      <c r="C47" s="34" t="s">
-        <v>109</v>
+      <c r="C47" s="32" t="s">
+        <v>108</v>
       </c>
-      <c r="D47" s="38">
+      <c r="D47" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E47" s="34" t="s">
-        <v>121</v>
+      <c r="E47" s="32" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="34">
+      <c r="A48" s="32">
         <v>58</v>
       </c>
-      <c r="B48" s="38" t="s">
-        <v>120</v>
+      <c r="B48" s="32" t="s">
+        <v>119</v>
       </c>
-      <c r="C48" s="34" t="s">
-        <v>109</v>
+      <c r="C48" s="32" t="s">
+        <v>108</v>
       </c>
-      <c r="D48" s="38">
+      <c r="D48" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E48" s="34" t="s">
-        <v>119</v>
+      <c r="E48" s="32" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="34">
+      <c r="A49" s="32">
         <v>59</v>
       </c>
-      <c r="B49" s="38" t="s">
-        <v>95</v>
+      <c r="B49" s="32" t="s">
+        <v>94</v>
       </c>
-      <c r="C49" s="34" t="s">
-        <v>91</v>
+      <c r="C49" s="32" t="s">
+        <v>90</v>
       </c>
-      <c r="D49" s="38">
+      <c r="D49" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E49" s="34" t="s">
-        <v>94</v>
+      <c r="E49" s="32" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="34">
+      <c r="A50" s="32">
         <v>60</v>
       </c>
-      <c r="B50" s="38" t="s">
-        <v>118</v>
+      <c r="B50" s="32" t="s">
+        <v>117</v>
       </c>
-      <c r="C50" s="34" t="s">
-        <v>91</v>
+      <c r="C50" s="32" t="s">
+        <v>90</v>
       </c>
-      <c r="D50" s="38">
+      <c r="D50" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E50" s="34" t="s">
-        <v>117</v>
+      <c r="E50" s="32" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="34">
+      <c r="A51" s="32">
         <v>61</v>
       </c>
-      <c r="B51" s="38" t="s">
-        <v>116</v>
+      <c r="B51" s="32" t="s">
+        <v>115</v>
       </c>
-      <c r="C51" s="34" t="s">
-        <v>91</v>
+      <c r="C51" s="32" t="s">
+        <v>90</v>
       </c>
-      <c r="D51" s="38">
+      <c r="D51" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E51" s="34" t="s">
-        <v>115</v>
+      <c r="E51" s="32" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="34">
+      <c r="A52" s="32">
         <v>62</v>
       </c>
-      <c r="B52" s="38" t="s">
-        <v>114</v>
+      <c r="B52" s="32" t="s">
+        <v>113</v>
       </c>
-      <c r="C52" s="34" t="s">
-        <v>109</v>
+      <c r="C52" s="32" t="s">
+        <v>108</v>
       </c>
-      <c r="D52" s="38">
+      <c r="D52" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E52" s="34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="34" t="s">
+      <c r="E52" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="38" t="s">
-        <v>95</v>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="32" t="s">
+        <v>111</v>
       </c>
-      <c r="C53" s="34" t="s">
-        <v>91</v>
+      <c r="B53" s="32" t="s">
+        <v>94</v>
       </c>
-      <c r="D53" s="38">
+      <c r="C53" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E53" s="34" t="s">
-        <v>94</v>
+      <c r="E53" s="32" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="34">
+      <c r="A54" s="32">
         <v>65</v>
       </c>
-      <c r="B54" s="38" t="s">
-        <v>111</v>
+      <c r="B54" s="32" t="s">
+        <v>110</v>
       </c>
-      <c r="C54" s="34" t="s">
-        <v>109</v>
+      <c r="C54" s="32" t="s">
+        <v>108</v>
       </c>
-      <c r="D54" s="38">
+      <c r="D54" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E54" s="34" t="s">
-        <v>110</v>
+      <c r="E54" s="32" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="34">
+      <c r="A55" s="32">
         <v>66</v>
       </c>
-      <c r="B55" s="38" t="s">
-        <v>108</v>
+      <c r="B55" s="32" t="s">
+        <v>107</v>
       </c>
-      <c r="C55" s="34" t="s">
-        <v>91</v>
+      <c r="C55" s="32" t="s">
+        <v>90</v>
       </c>
-      <c r="D55" s="38">
+      <c r="D55" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E55" s="34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="34" t="s">
+      <c r="E55" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="B56" s="38" t="s">
-        <v>95</v>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="32" t="s">
+        <v>105</v>
       </c>
-      <c r="C56" s="34" t="s">
-        <v>91</v>
+      <c r="B56" s="32" t="s">
+        <v>94</v>
       </c>
-      <c r="D56" s="38">
+      <c r="C56" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E56" s="34" t="s">
-        <v>94</v>
+      <c r="E56" s="32" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="34">
+      <c r="A57" s="32">
         <v>71</v>
       </c>
-      <c r="B57" s="38" t="s">
-        <v>105</v>
+      <c r="B57" s="32" t="s">
+        <v>104</v>
       </c>
-      <c r="C57" s="34" t="s">
-        <v>101</v>
+      <c r="C57" s="32" t="s">
+        <v>100</v>
       </c>
-      <c r="D57" s="38">
+      <c r="D57" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E57" s="34" t="s">
-        <v>104</v>
+      <c r="E57" s="32" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="34">
+      <c r="A58" s="32">
         <v>72</v>
       </c>
-      <c r="B58" s="38" t="s">
-        <v>103</v>
+      <c r="B58" s="32" t="s">
+        <v>102</v>
       </c>
-      <c r="C58" s="34" t="s">
-        <v>101</v>
+      <c r="C58" s="32" t="s">
+        <v>100</v>
       </c>
-      <c r="D58" s="38">
+      <c r="D58" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E58" s="34" t="s">
-        <v>102</v>
+      <c r="E58" s="32" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="34" t="s">
-        <v>100</v>
+      <c r="A59" s="32" t="s">
+        <v>99</v>
       </c>
-      <c r="B59" s="38" t="s">
-        <v>95</v>
+      <c r="B59" s="32" t="s">
+        <v>94</v>
       </c>
-      <c r="C59" s="34" t="s">
-        <v>91</v>
+      <c r="C59" s="32" t="s">
+        <v>90</v>
       </c>
-      <c r="D59" s="38">
+      <c r="D59" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E59" s="34" t="s">
-        <v>94</v>
+      <c r="E59" s="32" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="34">
+      <c r="A60" s="32">
         <v>81</v>
       </c>
-      <c r="B60" s="38" t="s">
-        <v>99</v>
+      <c r="B60" s="32" t="s">
+        <v>98</v>
       </c>
-      <c r="C60" s="34" t="s">
-        <v>97</v>
+      <c r="C60" s="32" t="s">
+        <v>96</v>
       </c>
-      <c r="D60" s="38">
+      <c r="D60" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E60" s="34" t="s">
-        <v>98</v>
+      <c r="E60" s="32" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B61" s="38" t="s">
+      <c r="A61" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C61" s="34" t="s">
-        <v>91</v>
+      <c r="B61" s="32" t="s">
+        <v>94</v>
       </c>
-      <c r="D61" s="38">
+      <c r="C61" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E61" s="34" t="s">
-        <v>94</v>
+      <c r="E61" s="32" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="34">
+      <c r="A62" s="32">
         <v>99</v>
       </c>
-      <c r="B62" s="38" t="s">
-        <v>93</v>
+      <c r="B62" s="32" t="s">
+        <v>92</v>
       </c>
-      <c r="C62" s="34" t="s">
-        <v>91</v>
+      <c r="C62" s="32" t="s">
+        <v>90</v>
       </c>
-      <c r="D62" s="38">
+      <c r="D62" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E62" s="34" t="s">
-        <v>92</v>
+      <c r="E62" s="32" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -53471,8 +53436,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:E1048576 A1 D1:E1">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="A1 D1:E1 A2:E1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>IF($D1=1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PNH_Progression_Monitoring_Feature_Dictionary.xlsx
+++ b/PNH_Progression_Monitoring_Feature_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Documents/GitHub/pnh-progression-monitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D7522E-B615-8F4B-8FDE-31F9342E1EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC528D84-AB19-BB4E-887F-FEAA6BF23614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="29400" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/PNH_Progression_Monitoring_Feature_Dictionary.xlsx
+++ b/PNH_Progression_Monitoring_Feature_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Documents/GitHub/pnh-progression-monitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC528D84-AB19-BB4E-887F-FEAA6BF23614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72687915-D4A8-0947-B665-3CA585DD5E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="29400" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1239,7 +1239,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>

--- a/PNH_Progression_Monitoring_Feature_Dictionary.xlsx
+++ b/PNH_Progression_Monitoring_Feature_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Documents/GitHub/pnh-progression-monitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72687915-D4A8-0947-B665-3CA585DD5E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD790A7-E631-4F4D-A135-576CAA947B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="29400" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="231">
   <si>
     <t>Column</t>
   </si>
@@ -768,12 +768,36 @@
   <si>
     <t>Medication</t>
   </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://mor.nlm.nih.gov/RxNav/search?searchBy=NameOrCode&amp;searchTerm=ravulizumab#ndc</t>
+  </si>
+  <si>
+    <t>https://mor.nlm.nih.gov/RxNav/search?searchBy=NameOrCode&amp;searchTerm=eculizumab</t>
+  </si>
+  <si>
+    <t>https://mor.nlm.nih.gov/RxNav/search?searchBy=NameOrCode&amp;searchTerm=iptacopan</t>
+  </si>
+  <si>
+    <t>https://mor.nlm.nih.gov/RxNav/search?searchBy=NameOrCode&amp;searchTerm=pegcetacoplan</t>
+  </si>
+  <si>
+    <t>https://mor.nlm.nih.gov/RxNav/search?searchBy=NameOrCode&amp;searchTerm=danicopan</t>
+  </si>
+  <si>
+    <t>crovalimab</t>
+  </si>
+  <si>
+    <t>https://mor.nlm.nih.gov/RxNav/search?searchBy=NameOrCode&amp;searchTerm=crovalimab</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -825,6 +849,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -895,11 +927,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1002,8 +1035,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{63B04CCF-B094-F04B-BE61-02F4025DF6B3}"/>
   </cellStyles>
@@ -25034,7 +25074,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25352,13 +25392,13 @@
       <c r="V10" s="10"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="12"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -25385,8 +25425,10 @@
       <c r="C12" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="12"/>
+      <c r="D12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -25407,13 +25449,15 @@
     </row>
     <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="s">
-        <v>73</v>
+        <v>229</v>
       </c>
       <c r="C13" s="10">
-        <v>2107301</v>
+        <v>2686619</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="D13" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13" s="39"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -25430,13 +25474,15 @@
     </row>
     <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C14" s="10">
-        <v>591781</v>
+        <v>2678952</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="D14" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" s="39"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -25453,13 +25499,15 @@
     </row>
     <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="10">
-        <v>2671061</v>
+        <v>591781</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="D15" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="E15" s="39"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -25476,13 +25524,15 @@
     </row>
     <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="10">
-        <v>2557372</v>
+        <v>2671061</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" s="39"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -25499,13 +25549,15 @@
     </row>
     <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="10">
-        <v>2678952</v>
+        <v>2557372</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="D17" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="39"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -25522,10 +25574,16 @@
     </row>
     <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="12"/>
+      <c r="B18" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2107301</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="38"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -48801,11 +48859,21 @@
       <c r="V987" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B13:D18">
+    <sortCondition ref="B13:B18"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{1CAB21DD-AE6C-6046-A731-E5A670C47B58}"/>
+    <hyperlink ref="D18" r:id="rId2" location="ndc" xr:uid="{94A72E58-918D-F14A-ABF1-AE26D5FF67DE}"/>
+    <hyperlink ref="D15" r:id="rId3" xr:uid="{823CDD80-C4BF-AF42-9D3C-AD6B57F91F7D}"/>
+    <hyperlink ref="D16" r:id="rId4" xr:uid="{3D8C8CC2-9A24-8749-94E2-42223C88C49E}"/>
+    <hyperlink ref="D17" r:id="rId5" xr:uid="{A6E7A069-D794-E74C-A128-7B5CA85C6803}"/>
+    <hyperlink ref="D14" r:id="rId6" xr:uid="{43DADEEF-A145-F744-BF7A-BC8071D2C8CE}"/>
+    <hyperlink ref="D13" r:id="rId7" xr:uid="{86C60AFB-9822-3243-8BB8-A7635F603A39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
